--- a/generated_docs/WR_89866468_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89866468_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I148"/>
+  <dimension ref="A2:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>23336.76</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1203,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1237,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1275,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,32 +1305,32 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1339,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,32 +1441,32 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,28 +1479,28 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1513,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,28 +1547,28 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1577,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1611,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1645,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,11 +1747,11 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,11 +1781,11 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1815,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,32 +1849,32 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1883,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1917,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1951,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1985,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2019,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,22 +2053,22 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC24-F</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2121,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-PNA</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Primary Neutral Al</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,28 +2193,28 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,32 +2223,32 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,32 +2257,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,32 +2291,32 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,32 +2325,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,28 +2363,28 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2397,28 +2397,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,11 +2427,11 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2442,17 +2442,17 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>587.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>BKT-AC24-F</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CND-HLC10</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CND,Hot Line Clamp 1/0</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2529,11 +2529,11 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>CND-S10</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>CND,Stirrup 1/0</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2567,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>ALB-W-30-A-1-A</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Alum,1P,Area</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,28 +2601,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>37.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>ALT-100-SOP</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,28 +2635,28 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>54.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,28 +2669,28 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2699,32 +2699,32 @@
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,28 +2737,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-PNA</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Primary Neutral Al</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,32 +2767,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,32 +2801,32 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2839,28 +2839,28 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,32 +2869,32 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,28 +2907,28 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2937,17 +2937,17 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
@@ -2975,13 +2975,13 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
@@ -3009,28 +3009,28 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3077,28 +3077,28 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ALB-W-30-A-1-A</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ALB,Wood,30in,Alum,1P,Area</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3107,32 +3107,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ALT-100-SOP</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,28 +3145,28 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3175,32 +3175,32 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3213,18 +3213,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>CND-HLC10</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>CND,Hot Line Clamp 1/0</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3247,18 +3247,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S10</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup 1/0</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3277,22 +3277,22 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3345,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3383,28 +3383,28 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-LG-AL</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Lug,Area Lt</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,32 +3413,32 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3447,17 +3447,17 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
@@ -3481,32 +3481,32 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3515,22 +3515,22 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,18 +3553,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3621,28 +3621,28 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3651,32 +3651,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,18 +3689,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3723,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3753,32 +3753,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3791,28 +3791,28 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3821,32 +3821,32 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3855,965 +3855,965 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="15" t="inlineStr">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C118" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B119" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="13" t="inlineStr"/>
+      <c r="H119" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H108" s="16" t="n">
-        <v>17484.91</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="7" t="inlineStr">
+      <c r="H134" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="inlineStr">
         <is>
           <t>Sunday (08/10/2025)</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="8" t="inlineStr">
+    <row r="138">
+      <c r="A138" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B112" s="8" t="inlineStr">
+      <c r="B138" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C112" s="8" t="inlineStr">
+      <c r="C138" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D112" s="8" t="inlineStr">
+      <c r="D138" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E112" s="8" t="inlineStr">
+      <c r="E138" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F112" s="8" t="inlineStr">
+      <c r="F138" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G112" s="8" t="inlineStr">
+      <c r="G138" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H112" s="8" t="inlineStr">
+      <c r="H138" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>114.84</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B114" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B116" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>28.71</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC243PH-F</t>
-        </is>
-      </c>
-      <c r="C117" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 24in (3Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>95.16</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B118" s="12" t="inlineStr">
-        <is>
-          <t>BKT-CMX-50-A</t>
-        </is>
-      </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
-        </is>
-      </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>49.01</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C119" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D119" s="9" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="10" t="inlineStr"/>
-      <c r="H119" s="11" t="n">
-        <v>20.29</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B120" s="12" t="inlineStr">
-        <is>
-          <t>CND-S10</t>
-        </is>
-      </c>
-      <c r="C120" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D120" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 1/0</t>
-        </is>
-      </c>
-      <c r="E120" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G120" s="13" t="inlineStr"/>
-      <c r="H120" s="14" t="n">
-        <v>82.8</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B121" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-PNA</t>
-        </is>
-      </c>
-      <c r="C121" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D121" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E121" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G121" s="10" t="inlineStr"/>
-      <c r="H121" s="11" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B122" s="12" t="inlineStr">
-        <is>
-          <t>EQL-3-4-C-35-S-X</t>
-        </is>
-      </c>
-      <c r="C122" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D122" s="12" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E122" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="13" t="inlineStr"/>
-      <c r="H122" s="14" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B123" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C123" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D123" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E123" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" s="10" t="inlineStr"/>
-      <c r="H123" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B124" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C124" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D124" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E124" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G124" s="13" t="inlineStr"/>
-      <c r="H124" s="14" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B125" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C125" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D125" s="9" t="inlineStr">
-        <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
-        </is>
-      </c>
-      <c r="E125" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G125" s="10" t="inlineStr"/>
-      <c r="H125" s="11" t="n">
-        <v>391.66</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B126" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C126" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E126" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G126" s="13" t="inlineStr"/>
-      <c r="H126" s="14" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B127" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C127" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E127" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G127" s="10" t="inlineStr"/>
-      <c r="H127" s="11" t="n">
-        <v>187.26</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B128" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F</t>
-        </is>
-      </c>
-      <c r="C128" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D128" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
-        </is>
-      </c>
-      <c r="E128" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="13" t="inlineStr"/>
-      <c r="H128" s="14" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B129" s="9" t="inlineStr">
-        <is>
-          <t>BKT-CMX-50-A</t>
-        </is>
-      </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D129" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
-        </is>
-      </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" s="10" t="inlineStr"/>
-      <c r="H129" s="11" t="n">
-        <v>26.73</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B130" s="12" t="inlineStr">
-        <is>
-          <t>CND-S10</t>
-        </is>
-      </c>
-      <c r="C130" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 1/0</t>
-        </is>
-      </c>
-      <c r="E130" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G130" s="13" t="inlineStr"/>
-      <c r="H130" s="14" t="n">
-        <v>18.51</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B131" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-PNA</t>
-        </is>
-      </c>
-      <c r="C131" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D131" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G131" s="10" t="inlineStr"/>
-      <c r="H131" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B132" s="12" t="inlineStr">
-        <is>
-          <t>EQL-3-4-C-35-S-X</t>
-        </is>
-      </c>
-      <c r="C132" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E132" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="13" t="inlineStr"/>
-      <c r="H132" s="14" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B133" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C133" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D133" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="10" t="inlineStr"/>
-      <c r="H133" s="11" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B134" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C134" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D134" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E134" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G134" s="13" t="inlineStr"/>
-      <c r="H134" s="14" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B135" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C135" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D135" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="10" t="inlineStr"/>
-      <c r="H135" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B136" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C136" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D136" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G136" s="13" t="inlineStr"/>
-      <c r="H136" s="14" t="n">
-        <v>79.56</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B137" s="9" t="inlineStr">
-        <is>
-          <t>ALB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C137" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="9" t="inlineStr">
-        <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
-        </is>
-      </c>
-      <c r="E137" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="10" t="inlineStr"/>
-      <c r="H137" s="11" t="n">
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B138" s="12" t="inlineStr">
-        <is>
-          <t>ALT-LED-FL-76-18L-SF-TN</t>
-        </is>
-      </c>
-      <c r="C138" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
-        <is>
-          <t>18.8kL LED,7x6 SlipFt, cable-tenon,Flood</t>
-        </is>
-      </c>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="13" t="inlineStr"/>
-      <c r="H138" s="14" t="n">
-        <v>76.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="D139" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E139" s="9" t="inlineStr">
@@ -4832,22 +4832,22 @@
         </is>
       </c>
       <c r="F139" s="10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G139" s="10" t="inlineStr"/>
       <c r="H139" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B140" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D140" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E140" s="12" t="inlineStr">
@@ -4866,22 +4866,22 @@
         </is>
       </c>
       <c r="F140" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G140" s="13" t="inlineStr"/>
       <c r="H140" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B141" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C141" s="9" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D141" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E141" s="9" t="inlineStr">
@@ -4900,22 +4900,22 @@
         </is>
       </c>
       <c r="F141" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G141" s="10" t="inlineStr"/>
       <c r="H141" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B142" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E142" s="12" t="inlineStr">
@@ -4934,22 +4934,22 @@
         </is>
       </c>
       <c r="F142" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G142" s="13" t="inlineStr"/>
       <c r="H142" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B143" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>GND-LG-AL</t>
         </is>
       </c>
       <c r="C143" s="9" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="D143" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>GND,Lug,Area Lt</t>
         </is>
       </c>
       <c r="E143" s="9" t="inlineStr">
@@ -4968,32 +4968,32 @@
         </is>
       </c>
       <c r="F143" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" s="10" t="inlineStr"/>
       <c r="H143" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B144" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D144" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E144" s="12" t="inlineStr">
@@ -5002,32 +5002,32 @@
         </is>
       </c>
       <c r="F144" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" s="13" t="inlineStr"/>
       <c r="H144" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B145" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC243PH-F</t>
         </is>
       </c>
       <c r="C145" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D145" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 24in (3Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E145" s="9" t="inlineStr">
@@ -5040,28 +5040,28 @@
       </c>
       <c r="G145" s="10" t="inlineStr"/>
       <c r="H145" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B146" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>BKT-CMX-50-A</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D146" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
         </is>
       </c>
       <c r="E146" s="12" t="inlineStr">
@@ -5070,32 +5070,32 @@
         </is>
       </c>
       <c r="F146" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" s="13" t="inlineStr"/>
       <c r="H146" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B147" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C147" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D147" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E147" s="9" t="inlineStr">
@@ -5104,21 +5104,1245 @@
         </is>
       </c>
       <c r="F147" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G147" s="10" t="inlineStr"/>
       <c r="H147" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="15" t="inlineStr">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C148" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" s="13" t="inlineStr"/>
+      <c r="H148" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-PNA</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Primary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-35-S-X</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B154" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C154" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D154" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E154" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" s="13" t="inlineStr"/>
+      <c r="H154" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C155" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B156" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C156" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E156" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13" t="inlineStr"/>
+      <c r="H156" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B157" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C157" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D157" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B158" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C158" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D158" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E158" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G158" s="13" t="inlineStr"/>
+      <c r="H158" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F</t>
+        </is>
+      </c>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B160" s="12" t="inlineStr">
+        <is>
+          <t>BKT-CMX-50-A</t>
+        </is>
+      </c>
+      <c r="C160" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+        </is>
+      </c>
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="13" t="inlineStr"/>
+      <c r="H160" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B161" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C161" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" s="10" t="inlineStr"/>
+      <c r="H161" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B162" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C162" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D162" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E162" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" s="13" t="inlineStr"/>
+      <c r="H162" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B163" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-PNA</t>
+        </is>
+      </c>
+      <c r="C163" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Primary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" s="10" t="inlineStr"/>
+      <c r="H163" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B164" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-35-S-X</t>
+        </is>
+      </c>
+      <c r="C164" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E164" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="13" t="inlineStr"/>
+      <c r="H164" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B165" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C165" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D165" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10" t="inlineStr"/>
+      <c r="H165" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B166" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C166" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D166" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G166" s="13" t="inlineStr"/>
+      <c r="H166" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B167" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C167" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D167" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E167" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="10" t="inlineStr"/>
+      <c r="H167" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B168" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C168" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E168" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="13" t="inlineStr"/>
+      <c r="H168" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C169" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E169" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G169" s="10" t="inlineStr"/>
+      <c r="H169" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B170" s="12" t="inlineStr">
+        <is>
+          <t>ALB-W-18-A-1-F</t>
+        </is>
+      </c>
+      <c r="C170" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
+        <is>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="13" t="inlineStr"/>
+      <c r="H170" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>ALT-LED-FL-76-18L-SF-TN</t>
+        </is>
+      </c>
+      <c r="C171" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>18.8kL LED,7x6 SlipFt, cable-tenon,Flood</t>
+        </is>
+      </c>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="10" t="inlineStr"/>
+      <c r="H171" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E172" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" s="13" t="inlineStr"/>
+      <c r="H172" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B173" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C173" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E173" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="10" t="inlineStr"/>
+      <c r="H173" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B174" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E174" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" s="13" t="inlineStr"/>
+      <c r="H174" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B175" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D175" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="10" t="inlineStr"/>
+      <c r="H175" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B176" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C176" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D176" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E176" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" s="13" t="inlineStr"/>
+      <c r="H176" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV</t>
+        </is>
+      </c>
+      <c r="C177" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G177" s="10" t="inlineStr"/>
+      <c r="H177" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E178" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G178" s="13" t="inlineStr"/>
+      <c r="H178" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="10" t="inlineStr"/>
+      <c r="H179" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G180" s="13" t="inlineStr"/>
+      <c r="H180" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C181" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" s="10" t="inlineStr"/>
+      <c r="H181" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G182" s="13" t="inlineStr"/>
+      <c r="H182" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C183" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G183" s="10" t="inlineStr"/>
+      <c r="H183" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H148" s="16" t="n">
-        <v>5851.849999999999</v>
+      <c r="H184" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5128,14 +6352,14 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A137:H137"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A134:G134"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A111:H111"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89866468_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89866468_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I184"/>
+  <dimension ref="A2:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>23336.76</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P80</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="28">
@@ -1150,17 +1146,17 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1165,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="29">
@@ -1184,17 +1180,17 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1199,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,32 +1233,32 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1271,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,32 +1301,32 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1335,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1403,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,32 +1437,32 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,28 +1475,28 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1509,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,28 +1543,28 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1573,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1607,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1641,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1656,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1666,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1690,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="45">
@@ -1728,17 +1724,17 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,11 +1743,11 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1758,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1768,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1781,11 +1777,11 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1792,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,32 +1811,32 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,32 +1845,32 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1879,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1913,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1947,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1981,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2015,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,22 +2049,22 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +2074,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,22 +2083,22 @@
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>BKT-AC24-F</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2108,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2117,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>CND-S10</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>CND,Stirrup 1/0</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2155,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,28 +2189,28 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,32 +2219,32 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,32 +2253,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,32 +2287,32 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,32 +2321,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,28 +2359,28 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2397,28 +2393,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,11 +2423,11 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="66">
@@ -2442,17 +2438,17 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,11 +2457,11 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>587.49</v>
       </c>
     </row>
     <row r="67">
@@ -2476,7 +2472,7 @@
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC24-F</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2486,7 +2482,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,7 +2495,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="68">
@@ -2510,7 +2506,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC10</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2520,7 +2516,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line Clamp 1/0</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2529,11 +2525,11 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="69">
@@ -2544,7 +2540,7 @@
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2554,7 +2550,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2563,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-PNA</t>
+          <t>ALB-W-30-A-1-A</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Primary Neutral Al</t>
+          <t>ALB,Wood,30in,Alum,1P,Area</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,28 +2597,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>37.03</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>ALT-100-SOP</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,28 +2631,28 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,28 +2665,28 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2699,32 +2695,32 @@
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-S10</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Stirrup 1/0</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,28 +2733,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,32 +2763,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,32 +2797,32 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2839,28 +2835,28 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,32 +2865,32 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,28 +2903,28 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2937,17 +2933,17 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
@@ -2957,7 +2953,7 @@
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
@@ -2975,13 +2971,13 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
@@ -2991,7 +2987,7 @@
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
@@ -3009,28 +3005,28 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3039,22 +3035,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3060,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3077,28 +3073,28 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-30-A-1-A</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Alum,1P,Area</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3107,32 +3103,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>ALT-100-SOP</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,28 +3141,28 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3175,32 +3171,32 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3213,18 +3209,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC10</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3234,7 +3230,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line Clamp 1/0</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3247,18 +3243,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3268,7 +3264,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3277,22 +3273,22 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-PNA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3302,7 +3298,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Primary Neutral Al</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3311,22 +3307,22 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3336,7 +3332,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3341,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3383,28 +3379,28 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>GND-LG-AL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>GND,Lug,Area Lt</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,32 +3409,32 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3447,17 +3443,17 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
@@ -3467,7 +3463,7 @@
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
@@ -3481,32 +3477,32 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3515,22 +3511,22 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3540,7 +3536,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,18 +3549,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3574,7 +3570,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,22 +3579,22 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3604,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3621,28 +3617,28 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3651,32 +3647,32 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,18 +3685,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3706,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3719,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3740,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3753,32 +3749,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3791,28 +3787,28 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3821,32 +3817,32 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3855,965 +3851,965 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="inlineStr">
+      <c r="A108" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H108" s="16" t="n">
+        <v>17484.91</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (08/10/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B112" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C112" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D112" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E112" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F112" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G112" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H112" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B108" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G108" s="10" t="inlineStr"/>
-      <c r="H108" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="inlineStr">
+      <c r="B113" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="11" t="n">
+        <v>114.84</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B114" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" s="13" t="inlineStr"/>
+      <c r="H114" s="14" t="n">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B116" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC243PH-F</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D117" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 24in (3Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
+        <is>
+          <t>BKT-CMX-50-A</t>
+        </is>
+      </c>
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>49.01</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B120" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-PNA</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Primary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="11" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B122" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-35-S-X</t>
+        </is>
+      </c>
+      <c r="C122" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D122" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13" t="inlineStr"/>
+      <c r="H122" s="14" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C123" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D123" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="10" t="inlineStr"/>
+      <c r="H123" s="11" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B124" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C124" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E124" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" s="13" t="inlineStr"/>
+      <c r="H124" s="14" t="n">
+        <v>165.54</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C125" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D125" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" s="10" t="inlineStr"/>
+      <c r="H125" s="11" t="n">
+        <v>391.66</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B126" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C126" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E126" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="13" t="inlineStr"/>
+      <c r="H126" s="14" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="11" t="n">
+        <v>187.26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B109" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C109" s="12" t="inlineStr">
+      <c r="B128" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC183PH-F</t>
+        </is>
+      </c>
+      <c r="C128" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D109" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E109" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="13" t="inlineStr"/>
-      <c r="H109" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9" t="inlineStr">
+      <c r="D128" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13" t="inlineStr"/>
+      <c r="H128" s="14" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B110" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C110" s="9" t="inlineStr">
+      <c r="B129" s="9" t="inlineStr">
+        <is>
+          <t>BKT-CMX-50-A</t>
+        </is>
+      </c>
+      <c r="C129" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D110" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="10" t="n">
+      <c r="D129" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+        </is>
+      </c>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="11" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G110" s="10" t="inlineStr"/>
-      <c r="H110" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="12" t="inlineStr">
+      <c r="G130" s="13" t="inlineStr"/>
+      <c r="H130" s="14" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B111" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C111" s="12" t="inlineStr">
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-PNA</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D111" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E111" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="13" t="inlineStr"/>
-      <c r="H111" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="9" t="inlineStr">
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Primary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="11" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B112" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C112" s="9" t="inlineStr">
+      <c r="B132" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-35-S-X</t>
+        </is>
+      </c>
+      <c r="C132" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D112" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13" t="inlineStr"/>
+      <c r="H132" s="14" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B113" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C113" s="12" t="inlineStr">
+      <c r="B133" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C133" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D113" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C114" s="9" t="inlineStr">
+      <c r="D133" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="11" t="n">
+        <v>60.43</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B134" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C134" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D114" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B115" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D116" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="10" t="n">
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G116" s="10" t="inlineStr"/>
-      <c r="H116" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B117" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C117" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E117" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="13" t="inlineStr"/>
-      <c r="H117" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C118" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D118" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E118" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" s="10" t="inlineStr"/>
-      <c r="H118" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B119" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C119" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D119" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E119" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="13" t="inlineStr"/>
-      <c r="H119" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C120" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D120" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E120" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G120" s="10" t="inlineStr"/>
-      <c r="H120" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B121" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C121" s="12" t="inlineStr">
+      <c r="G134" s="13" t="inlineStr"/>
+      <c r="H134" s="14" t="n">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E121" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="13" t="inlineStr"/>
-      <c r="H121" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
+      <c r="D135" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="11" t="n">
+        <v>95.15000000000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C136" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H134" s="16" t="n">
-        <v>0</v>
+      <c r="G136" s="13" t="inlineStr"/>
+      <c r="H136" s="14" t="n">
+        <v>79.56</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (08/10/2025)</t>
-        </is>
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>ALB-W-18-A-1-F</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="inlineStr">
+        <is>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="11" t="n">
+        <v>51.05</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B138" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C138" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D138" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E138" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F138" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G138" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H138" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="inlineStr">
+        <is>
+          <t>ALT-LED-FL-76-18L-SF-TN</t>
+        </is>
+      </c>
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>18.8kL LED,7x6 SlipFt, cable-tenon,Flood</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13" t="inlineStr"/>
+      <c r="H138" s="14" t="n">
+        <v>76.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
@@ -4823,7 +4819,7 @@
       </c>
       <c r="D139" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E139" s="9" t="inlineStr">
@@ -4832,22 +4828,22 @@
         </is>
       </c>
       <c r="F139" s="10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G139" s="10" t="inlineStr"/>
       <c r="H139" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B140" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
@@ -4857,7 +4853,7 @@
       </c>
       <c r="D140" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E140" s="12" t="inlineStr">
@@ -4866,22 +4862,22 @@
         </is>
       </c>
       <c r="F140" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G140" s="13" t="inlineStr"/>
       <c r="H140" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B141" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C141" s="9" t="inlineStr">
@@ -4891,7 +4887,7 @@
       </c>
       <c r="D141" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E141" s="9" t="inlineStr">
@@ -4900,22 +4896,22 @@
         </is>
       </c>
       <c r="F141" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G141" s="10" t="inlineStr"/>
       <c r="H141" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B142" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
@@ -4925,7 +4921,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E142" s="12" t="inlineStr">
@@ -4934,22 +4930,22 @@
         </is>
       </c>
       <c r="F142" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" s="13" t="inlineStr"/>
       <c r="H142" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B143" s="9" t="inlineStr">
         <is>
-          <t>GND-LG-AL</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C143" s="9" t="inlineStr">
@@ -4959,7 +4955,7 @@
       </c>
       <c r="D143" s="9" t="inlineStr">
         <is>
-          <t>GND,Lug,Area Lt</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E143" s="9" t="inlineStr">
@@ -4968,32 +4964,32 @@
         </is>
       </c>
       <c r="F143" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" s="10" t="inlineStr"/>
       <c r="H143" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B144" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D144" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E144" s="12" t="inlineStr">
@@ -5002,32 +4998,32 @@
         </is>
       </c>
       <c r="F144" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="13" t="inlineStr"/>
       <c r="H144" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B145" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC243PH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C145" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D145" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 24in (3Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E145" s="9" t="inlineStr">
@@ -5040,28 +5036,28 @@
       </c>
       <c r="G145" s="10" t="inlineStr"/>
       <c r="H145" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B146" s="12" t="inlineStr">
         <is>
-          <t>BKT-CMX-50-A</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D146" s="12" t="inlineStr">
         <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E146" s="12" t="inlineStr">
@@ -5070,32 +5066,32 @@
         </is>
       </c>
       <c r="F146" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G146" s="13" t="inlineStr"/>
       <c r="H146" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B147" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C147" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D147" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E147" s="9" t="inlineStr">
@@ -5104,1245 +5100,21 @@
         </is>
       </c>
       <c r="F147" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G147" s="10" t="inlineStr"/>
       <c r="H147" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B148" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC10</t>
-        </is>
-      </c>
-      <c r="C148" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D148" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line Clamp 1/0</t>
-        </is>
-      </c>
-      <c r="E148" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G148" s="13" t="inlineStr"/>
-      <c r="H148" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B149" s="9" t="inlineStr">
-        <is>
-          <t>CND-S10</t>
-        </is>
-      </c>
-      <c r="C149" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 1/0</t>
-        </is>
-      </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B150" s="12" t="inlineStr">
-        <is>
-          <t>DEG-10-PNA</t>
-        </is>
-      </c>
-      <c r="C150" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E150" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" s="13" t="inlineStr"/>
-      <c r="H150" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B151" s="9" t="inlineStr">
-        <is>
-          <t>EQL-3-4-C-35-S-X</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="9" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B152" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C152" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D152" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="13" t="inlineStr"/>
-      <c r="H152" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B153" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C153" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E153" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="10" t="inlineStr"/>
-      <c r="H153" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B154" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C154" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D154" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E154" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G154" s="13" t="inlineStr"/>
-      <c r="H154" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B155" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C155" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D155" s="9" t="inlineStr">
-        <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
-        </is>
-      </c>
-      <c r="E155" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" s="10" t="inlineStr"/>
-      <c r="H155" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B156" s="12" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C156" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D156" s="12" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E156" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="13" t="inlineStr"/>
-      <c r="H156" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B157" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C157" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D157" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E157" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G157" s="10" t="inlineStr"/>
-      <c r="H157" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B158" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C158" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D158" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E158" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G158" s="13" t="inlineStr"/>
-      <c r="H158" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B159" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC183PH-F</t>
-        </is>
-      </c>
-      <c r="C159" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Riser Arrestor/Term 18in 3Ph,Fbrgls</t>
-        </is>
-      </c>
-      <c r="E159" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="10" t="inlineStr"/>
-      <c r="H159" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B160" s="12" t="inlineStr">
-        <is>
-          <t>BKT-CMX-50-A</t>
-        </is>
-      </c>
-      <c r="C160" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Cluster Mnt (XFMR),50KVA,Alum</t>
-        </is>
-      </c>
-      <c r="E160" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="13" t="inlineStr"/>
-      <c r="H160" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B161" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC10</t>
-        </is>
-      </c>
-      <c r="C161" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line Clamp 1/0</t>
-        </is>
-      </c>
-      <c r="E161" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G161" s="10" t="inlineStr"/>
-      <c r="H161" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B162" s="12" t="inlineStr">
-        <is>
-          <t>CND-S10</t>
-        </is>
-      </c>
-      <c r="C162" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 1/0</t>
-        </is>
-      </c>
-      <c r="E162" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G162" s="13" t="inlineStr"/>
-      <c r="H162" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B163" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-PNA</t>
-        </is>
-      </c>
-      <c r="C163" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D163" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E163" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G163" s="10" t="inlineStr"/>
-      <c r="H163" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B164" s="12" t="inlineStr">
-        <is>
-          <t>EQL-3-4-C-35-S-X</t>
-        </is>
-      </c>
-      <c r="C164" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="12" t="inlineStr">
-        <is>
-          <t>EQL,3 Ph,#4,CU Sol,350,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E164" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="13" t="inlineStr"/>
-      <c r="H164" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B165" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C165" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D165" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E165" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="10" t="inlineStr"/>
-      <c r="H165" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B166" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C166" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D166" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E166" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G166" s="13" t="inlineStr"/>
-      <c r="H166" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B167" s="9" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C167" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D167" s="9" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E167" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="10" t="inlineStr"/>
-      <c r="H167" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B168" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C168" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D168" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E168" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" s="13" t="inlineStr"/>
-      <c r="H168" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B169" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C169" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D169" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E169" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G169" s="10" t="inlineStr"/>
-      <c r="H169" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B170" s="12" t="inlineStr">
-        <is>
-          <t>ALB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C170" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D170" s="12" t="inlineStr">
-        <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
-        </is>
-      </c>
-      <c r="E170" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="inlineStr"/>
-      <c r="H170" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B171" s="9" t="inlineStr">
-        <is>
-          <t>ALT-LED-FL-76-18L-SF-TN</t>
-        </is>
-      </c>
-      <c r="C171" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="9" t="inlineStr">
-        <is>
-          <t>18.8kL LED,7x6 SlipFt, cable-tenon,Flood</t>
-        </is>
-      </c>
-      <c r="E171" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="10" t="inlineStr"/>
-      <c r="H171" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B172" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C172" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D172" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E172" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G172" s="13" t="inlineStr"/>
-      <c r="H172" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B173" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C173" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D173" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E173" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F173" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" s="10" t="inlineStr"/>
-      <c r="H173" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B174" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C174" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D174" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E174" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G174" s="13" t="inlineStr"/>
-      <c r="H174" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B175" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C175" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D175" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E175" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" s="10" t="inlineStr"/>
-      <c r="H175" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B176" s="12" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C176" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D176" s="12" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E176" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F176" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G176" s="13" t="inlineStr"/>
-      <c r="H176" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B177" s="9" t="inlineStr">
-        <is>
-          <t>SVD-3-CV</t>
-        </is>
-      </c>
-      <c r="C177" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D177" s="9" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E177" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G177" s="10" t="inlineStr"/>
-      <c r="H177" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B178" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C178" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D178" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E178" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G178" s="13" t="inlineStr"/>
-      <c r="H178" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B179" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S</t>
-        </is>
-      </c>
-      <c r="C179" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D179" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E179" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="10" t="inlineStr"/>
-      <c r="H179" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B180" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C180" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D180" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E180" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G180" s="13" t="inlineStr"/>
-      <c r="H180" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B181" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C181" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D181" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E181" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G181" s="10" t="inlineStr"/>
-      <c r="H181" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B182" s="12" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C182" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D182" s="12" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E182" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G182" s="13" t="inlineStr"/>
-      <c r="H182" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B183" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C183" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D183" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E183" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G183" s="10" t="inlineStr"/>
-      <c r="H183" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="15" t="inlineStr">
+      <c r="A148" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H184" s="16" t="n">
-        <v>0</v>
+      <c r="H148" s="16" t="n">
+        <v>5851.849999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6352,14 +5124,14 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A148:G148"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A134:G134"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A111:H111"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
